--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3746242.200225823</v>
+        <v>3744354.61870942</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>125.0208475101521</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>309.7029429582352</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>53.14836073201765</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>133.5262229738438</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U7" t="n">
-        <v>6.596015618368514</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>220.9109866599767</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>368.5921657439715</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>59.91780625496047</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>133.4548648132223</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>31.31644572559196</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>59.77945773664936</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>106.5579632528936</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>97.58716462298003</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.87916681139875</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>185.2583664469888</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>137.125867685469</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.37729220500651</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>235.5975646709548</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>85.34481428565547</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>101.0041688483412</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>163.8819251692215</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>93.41221638965523</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>90.21779139437412</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>93.710571738979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.599126004631955</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523569</v>
+        <v>54.76109577523566</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>175.2411516663871</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415213</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1272.344242153658</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1272.344242153658</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>914.0785435469074</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>528.2902909486631</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>521.3447901994597</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>507.4213861380506</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>180.2266661740534</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,10 +4352,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>645.0268521994323</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>645.0268521994323</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>494.9102127870965</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>494.9102127870965</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>645.0268521994323</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>645.0268521994323</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>645.0268521994323</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>645.0268521994323</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>645.0268521994323</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>806.0470106353782</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4638,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,13 +4650,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>721.4663421676781</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>721.4663421676781</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>432.0491721307175</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>555.4725825998845</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>555.4725825998845</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4802,10 +4802,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843237</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573123</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1332.211754639818</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>942.0724226640064</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>638.1890284388842</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>638.1890284388842</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>638.1890284388842</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>638.1890284388842</v>
+        <v>409.5384547146242</v>
       </c>
       <c r="V10" t="n">
-        <v>383.5045402329973</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>383.5045402329973</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>383.5045402329973</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.5045402329973</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>380.9740019042124</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>627.7391298106764</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>1646.27469227828</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1132.42297844904</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1132.42297844904</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>843.0058084120794</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>615.0162575140621</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,55 +5273,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.505047571597</v>
+        <v>659.3731057211725</v>
       </c>
       <c r="M15" t="n">
-        <v>1333.825180851558</v>
+        <v>966.6932390011342</v>
       </c>
       <c r="N15" t="n">
-        <v>1663.687808515591</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O15" t="n">
-        <v>2005.509969085868</v>
+        <v>1966.019627967827</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2486.320249703574</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.7466045204287</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8104215925218</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925218</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925218</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925218</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1391.281964241849</v>
+        <v>964.1357418247864</v>
       </c>
       <c r="U16" t="n">
-        <v>1102.153325455407</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="V16" t="n">
-        <v>1102.153325455407</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="W16" t="n">
-        <v>812.7361554184461</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="X16" t="n">
-        <v>584.7466045204287</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="Y16" t="n">
-        <v>584.7466045204287</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,7 +5513,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>732.1698305154059</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.489963795367</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.3743239205529</v>
+        <v>192.044532683921</v>
       </c>
       <c r="C19" t="n">
-        <v>542.438140992646</v>
+        <v>192.044532683921</v>
       </c>
       <c r="D19" t="n">
-        <v>542.438140992646</v>
+        <v>192.044532683921</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5701,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U19" t="n">
-        <v>1000.791493957513</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V19" t="n">
-        <v>1000.791493957513</v>
+        <v>709.451253618899</v>
       </c>
       <c r="W19" t="n">
-        <v>711.3743239205529</v>
+        <v>420.0340835819384</v>
       </c>
       <c r="X19" t="n">
-        <v>711.3743239205529</v>
+        <v>192.044532683921</v>
       </c>
       <c r="Y19" t="n">
-        <v>711.3743239205529</v>
+        <v>192.044532683921</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028562</v>
@@ -5753,22 +5753,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,19 +5829,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>242.5343297994526</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>391.6040140015125</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L21" t="n">
-        <v>638.3691419079765</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
         <v>2016.139981183168</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>383.6411625027488</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>265.7133084820795</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>117.8002148996864</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>933.2366688293932</v>
       </c>
       <c r="W22" t="n">
-        <v>786.0822064765186</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X22" t="n">
-        <v>786.0822064765186</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="Y22" t="n">
-        <v>565.2896273329885</v>
+        <v>415.8299478944152</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6072,22 +6072,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>539.5926371926334</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>563.723515174915</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>563.723515174915</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>563.723515174915</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925218</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925218</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6151,7 +6151,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6172,25 +6172,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333286</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="V25" t="n">
-        <v>1098.712528333286</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W25" t="n">
-        <v>1012.505645216462</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X25" t="n">
-        <v>784.5160943184451</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.723515174915</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,10 +6227,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>498.9056400965593</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>395.5481934947359</v>
+        <v>199.2415044384083</v>
       </c>
       <c r="C28" t="n">
-        <v>395.5481934947359</v>
+        <v>199.2415044384083</v>
       </c>
       <c r="D28" t="n">
-        <v>395.5481934947359</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,13 +6391,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1133.458962322725</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U28" t="n">
-        <v>844.3303235362837</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V28" t="n">
-        <v>844.3303235362837</v>
+        <v>709.451253618899</v>
       </c>
       <c r="W28" t="n">
-        <v>844.3303235362837</v>
+        <v>420.0340835819384</v>
       </c>
       <c r="X28" t="n">
-        <v>616.3407726382662</v>
+        <v>420.0340835819384</v>
       </c>
       <c r="Y28" t="n">
-        <v>395.5481934947359</v>
+        <v>199.2415044384083</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701563</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619849</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.1010933248435</v>
+        <v>604.5641438163786</v>
       </c>
       <c r="C31" t="n">
-        <v>581.9257756783074</v>
+        <v>491.3888261698426</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473425</v>
+        <v>397.0330520388777</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463202</v>
+        <v>397.0330520388777</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297806</v>
+        <v>305.9039698223382</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>193.4895134235296</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>98.8323702528434</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933503</v>
@@ -6637,7 +6637,7 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056075</v>
@@ -6655,16 +6655,16 @@
         <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1335.260356662</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1158.249092352518</v>
+        <v>902.680428981894</v>
       </c>
       <c r="X31" t="n">
-        <v>986.0204067358718</v>
+        <v>730.4517433652475</v>
       </c>
       <c r="Y31" t="n">
-        <v>820.9886928737125</v>
+        <v>730.4517433652475</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>2032.925401907738</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,25 +6856,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6926,34 +6926,34 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1689.561836756086</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>2019.424464420119</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>2298.964529638816</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2503.987010421026</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7096,10 +7096,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,22 +7169,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,28 +7196,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>143.7578250841096</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>292.8275092861694</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>539.5926371926334</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M39" t="n">
-        <v>846.9127704725951</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N39" t="n">
-        <v>1651.324348736746</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7415,7 +7415,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7436,10 +7436,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7491,25 +7491,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M42" t="n">
-        <v>841.863114014129</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>1646.27469227828</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.509969085868</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083207</v>
@@ -7558,7 +7558,7 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805475</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619856</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142006</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,19 +8769,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>94.13752431970619</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>91.23759968302096</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>62.9112074258378</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.62661940943505</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>199.6230805871097</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,22 +9477,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,25 +9720,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.100663089359642</v>
       </c>
       <c r="M24" t="n">
-        <v>360.5026862907256</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>87.16935584025379</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>169.2863157167183</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>96.0374492781458</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>32.9224866577558</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,16 +10437,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>285.1031356539328</v>
       </c>
       <c r="O33" t="n">
-        <v>19.14409596997035</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>32.92248665775577</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.78140656352421</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>5.100663089359664</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>9.900512684485363</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>80.5002137261522</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -11397,7 +11397,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>254.9209066729854</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>114.9895978054957</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>188.935833713611</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>52.55479583517042</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>100.9789859515885</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>30.12095341315888</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>125.0437558179247</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>50.63978772762258</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>201.1781840509355</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,10 +24604,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>47.61130416987116</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.66563588916783</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801204</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571488</v>
+        <v>53.6168628310829</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>56.07859004164686</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671878.3395195371</v>
+        <v>671878.3395195369</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671878.3395195368</v>
+        <v>671878.3395195369</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="F2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="F2" t="n">
-        <v>703852.3075278762</v>
-      </c>
       <c r="G2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="H2" t="n">
         <v>703852.3075278759</v>
       </c>
       <c r="I2" t="n">
+        <v>703852.307527876</v>
+      </c>
+      <c r="J2" t="n">
         <v>703852.3075278759</v>
       </c>
-      <c r="J2" t="n">
-        <v>703852.3075278756</v>
-      </c>
       <c r="K2" t="n">
-        <v>732279.8472214865</v>
+        <v>732279.847221485</v>
       </c>
       <c r="L2" t="n">
-        <v>738937.5928778562</v>
+        <v>738937.5928778559</v>
       </c>
       <c r="M2" t="n">
         <v>738937.5928778565</v>
       </c>
       <c r="N2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778565</v>
       </c>
       <c r="O2" t="n">
-        <v>738937.5928778563</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="P2" t="n">
-        <v>738937.5928778562</v>
+        <v>738937.5928778565</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.998865167886834e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284599</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086671</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284575</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007467</v>
+        <v>7916.731656007413</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007478</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020396</v>
+        <v>26081.35417020403</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732793</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732794</v>
       </c>
-      <c r="M4" t="n">
-        <v>30335.51889732794</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732793</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>30335.51889732797</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81806.41311601992</v>
+        <v>-81806.41311601995</v>
       </c>
       <c r="C6" t="n">
         <v>508161.4660985244</v>
       </c>
       <c r="D6" t="n">
-        <v>508161.4660985245</v>
+        <v>508161.4660985242</v>
       </c>
       <c r="E6" t="n">
-        <v>78788.21344625574</v>
+        <v>78690.75432028368</v>
       </c>
       <c r="F6" t="n">
-        <v>603948.2499231522</v>
+        <v>603850.7907971793</v>
       </c>
       <c r="G6" t="n">
-        <v>603948.249923152</v>
+        <v>603850.79079718</v>
       </c>
       <c r="H6" t="n">
-        <v>603948.2499231518</v>
+        <v>603850.7907971797</v>
       </c>
       <c r="I6" t="n">
-        <v>603948.2499231518</v>
+        <v>603850.7907971798</v>
       </c>
       <c r="J6" t="n">
-        <v>427525.0307305586</v>
+        <v>427427.5716045867</v>
       </c>
       <c r="K6" t="n">
-        <v>565407.6792182138</v>
+        <v>565389.1854802781</v>
       </c>
       <c r="L6" t="n">
-        <v>600544.0613596361</v>
+        <v>600544.0613596357</v>
       </c>
       <c r="M6" t="n">
-        <v>476085.952926666</v>
+        <v>476085.9529266659</v>
       </c>
       <c r="N6" t="n">
-        <v>610886.9681605021</v>
+        <v>610886.9681605031</v>
       </c>
       <c r="O6" t="n">
-        <v>610886.968160503</v>
+        <v>610886.968160502</v>
       </c>
       <c r="P6" t="n">
-        <v>566724.3628576571</v>
+        <v>566724.3628576574</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26741,19 +26741,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26762,7 +26762,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26799,7 +26799,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26814,7 +26814,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26935,7 +26935,7 @@
         <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.92863350108354</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -26969,7 +26969,7 @@
         <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>26.91046873470917</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>60.02815772023388</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.679101716144942e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853701</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,10 +27588,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>233.1335135099601</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689005</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>249.2076186896367</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27825,16 +27825,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U7" t="n">
-        <v>279.6858586236092</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>144.3619051110309</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.13893493449757</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>86.74738572519736</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>118.6827785106057</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.212400893528402e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33184,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047518</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>244.7129629076454</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>373.6013019241291</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>345.274909666946</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>138.6396521945092</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>448.880785543134</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>146.7850892314816</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>254.358368045384</v>
       </c>
       <c r="M24" t="n">
-        <v>670.9270633411919</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36613,7 +36613,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
         <v>59.8253897034981</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>237.744794428193</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>257.2993485017925</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187476</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>345.2951542341702</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>240.0159015892805</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412265</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043187</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,16 +37157,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>618.2977090519457</v>
       </c>
       <c r="O33" t="n">
-        <v>301.5077982110785</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>366.1170600557687</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
@@ -37403,10 +37403,10 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>120.7944393485983</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>47.01084204426635</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>259.1582176405097</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>676.2260215178377</v>
@@ -37640,7 +37640,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37783,7 +37783,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221117</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>350.198519175048</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37871,16 +37871,16 @@
         <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>362.8639159672604</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>609.7603912467498</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38108,7 +38108,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>506.0379672345559</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38117,7 +38117,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
